--- a/Dual_OTA_VCA_BOM.xlsx
+++ b/Dual_OTA_VCA_BOM.xlsx
@@ -5,21 +5,22 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\gizmo\Documents\Develop\Dual_OTA_VCA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21270" windowHeight="10380"/>
   </bookViews>
   <sheets>
-    <sheet name="Dual_OTA_VCA_BOM" sheetId="1" r:id="rId1"/>
+    <sheet name="Dual_OTA_VCA_BOM (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Dual_OTA_VCA_BOM" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="147">
   <si>
     <t>Part</t>
   </si>
@@ -424,6 +425,98 @@
   </si>
   <si>
     <t>note</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>Qty</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C1,C2,C14,C15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>2018.04.11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C3,C16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C4,C5</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>C6,C7,C8,C9,C10,C11,C12,C13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>IC2,IC3,IC4</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP10,JP17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP1,JP2,JP3,JP9,JP11,JP12,JP13</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>JP4,JP5,JP6,JP14,JP15,JP16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R3,R14</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R4,R15</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R5,R16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R9,R19</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R1,R11</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R10,R12,R21</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>T1,T2</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R6,R17</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R8,R20</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>R2,R7,R13,R18</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP-16</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>DIP-8</t>
+    <phoneticPr fontId="18"/>
+  </si>
+  <si>
+    <t>TP_ENV</t>
     <phoneticPr fontId="18"/>
   </si>
 </sst>
@@ -1368,9 +1461,458 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="27.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>132</v>
+      </c>
+      <c r="B11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" t="s">
+        <v>114</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>108</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B16" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>138</v>
+      </c>
+      <c r="B17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" t="s">
+        <v>70</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" t="s">
+        <v>136</v>
+      </c>
+      <c r="B20" t="s">
+        <v>109</v>
+      </c>
+      <c r="C20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A22" t="s">
+        <v>137</v>
+      </c>
+      <c r="B22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" t="s">
+        <v>85</v>
+      </c>
+      <c r="D22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A23" t="s">
+        <v>139</v>
+      </c>
+      <c r="B23" t="s">
+        <v>109</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
+        <v>70</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A24" t="s">
+        <v>143</v>
+      </c>
+      <c r="B24" t="s">
+        <v>110</v>
+      </c>
+      <c r="C24" t="s">
+        <v>72</v>
+      </c>
+      <c r="D24" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" t="s">
+        <v>110</v>
+      </c>
+      <c r="C25" t="s">
+        <v>81</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A26" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" t="s">
+        <v>111</v>
+      </c>
+      <c r="C26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" t="s">
+        <v>100</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" t="s">
+        <v>144</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B28" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" t="s">
+        <v>145</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="18"/>
+  <printOptions gridLines="1"/>
+  <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="86" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
